--- a/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_電業公司_請付款單範本1.xlsx
+++ b/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_電業公司_請付款單範本1.xlsx
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <r>
       <rPr>
@@ -512,13 +512,13 @@
     </r>
   </si>
   <si>
-    <t>114/04/16</t>
+    <t>114/12/17</t>
   </si>
   <si>
     <t>事由：</t>
   </si>
   <si>
-    <t>111/12 份再生能源電能費用(Hoppe - Kertzmann)</t>
+    <t>110/07 份再生能源電能費用(Corwin, Bernier and Sipes)</t>
   </si>
   <si>
     <r>
@@ -581,7 +581,7 @@
     <t>專案工作代號：</t>
   </si>
   <si>
-    <t>專案工作代號：cd5e2957-1228-488b-a440-a5958ea874df、f98cdd32-6dc7-4dfd-97ea-36b5d13c4602</t>
+    <t>專案工作代號：9e005b69-53fd-4f74-a8af-aeb087442c9a、34a5e002-3dcd-4322-92d7-16663ab5513b、d65438c6-631a-4e6f-9a17-99029aedb186</t>
   </si>
   <si>
     <r>
@@ -734,22 +734,22 @@
     </r>
   </si>
   <si>
-    <t>1、Hoppe - Kertzmann案場電號2cfaf5e8-47ba-4adc-a49e-12bb47fccdd3、2a939577-7c77-4cf6-8748-9db421056269，再生能源電能費用計 NT$9,539元(含稅)。</t>
+    <t>1、Corwin, Bernier and Sipes案場電號0b04b1f9-23fd-47ff-8245-08a16b6b3ef6、5196be33-1d88-4a22-97f3-e0cb5af723bc、834cdd8b-4eb5-4599-8ddb-004b82bde036，再生能源電能費用計 NT$17,428元(含稅)。</t>
   </si>
   <si>
     <t>2、匯款資料</t>
   </si>
   <si>
-    <t xml:space="preserve">  戶名：Amanda Adams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  行庫：Rodriguez, Ortiz and Zboncak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  匯款帳號：88548232</t>
-  </si>
-  <si>
-    <t>3、附件：驗收紀錄表、台汽電綠能付款通知單、發票、Hoppe - Kertzmann存摺影本。</t>
+    <t xml:space="preserve">  戶名：Anita Towne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  行庫：Boyle, Hilpert and Barrows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  匯款帳號：63183009</t>
+  </si>
+  <si>
+    <t>3、附件：驗收紀錄表、台汽電綠能付款通知單、發票、Corwin, Bernier and Sipes存摺影本。</t>
   </si>
   <si>
     <t>4、台電轉供繳款通知單公槽路徑：\\vmfs.cogen.local\台汽電綠能\7.財務部轉供數據檢視\0.台電轉供帳單pdf&amp;excel</t>
@@ -840,16 +840,13 @@
     <t>1.</t>
   </si>
   <si>
-    <t>Hoppe - Kertzmann</t>
+    <t>Corwin, Bernier and Sipes</t>
   </si>
   <si>
     <t>轉帳</t>
   </si>
   <si>
     <t>NTD</t>
-  </si>
-  <si>
-    <t>9,539</t>
   </si>
   <si>
     <t xml:space="preserve">合   計</t>
@@ -1935,7 +1932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2304,9 +2301,6 @@
     <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5331,7 +5325,7 @@
     </row>
     <row r="14" ht="25" customHeight="1" s="14" customFormat="1">
       <c r="A14" s="48"/>
-      <c r="B14" s="125" t="s">
+      <c r="B14" s="14" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="58"/>
@@ -5418,8 +5412,8 @@
       <c r="G19" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="51" t="s">
-        <v>41</v>
+      <c r="H19" s="51">
+        <v>17428</v>
       </c>
       <c r="I19" s="71"/>
       <c r="J19" s="72"/>
@@ -5430,7 +5424,7 @@
     </row>
     <row r="20" ht="25" customHeight="1" s="8" customFormat="1">
       <c r="A20" s="112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="113"/>
       <c r="C20" s="113"/>
@@ -5454,41 +5448,41 @@
     </row>
     <row r="21" ht="68.5" customHeight="1" s="8" customFormat="1">
       <c r="A21" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="61" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>44</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="60"/>
       <c r="F21" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="H21" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="64" t="s">
+      <c r="I21" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="J21" s="25" t="s">
         <v>49</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>50</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N21" s="26"/>
     </row>
     <row r="22" ht="24.75" customHeight="1">
       <c r="A22" s="123" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5561,7 +5555,7 @@
   <sheetData>
     <row r="1" ht="27.5">
       <c r="A1" s="79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
@@ -5624,17 +5618,17 @@
       <c r="L4" s="18"/>
       <c r="M4" s="4"/>
       <c r="N4" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O4" s="1"/>
     </row>
     <row r="5" ht="25.4" customHeight="1">
       <c r="A5" s="115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="81"/>
       <c r="C5" s="116" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="116"/>
       <c r="E5" s="116"/>
@@ -5643,7 +5637,7 @@
       <c r="H5" s="116"/>
       <c r="I5" s="117"/>
       <c r="J5" s="88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5" s="89"/>
       <c r="L5" s="90"/>
@@ -5663,7 +5657,7 @@
       <c r="H6" s="118"/>
       <c r="I6" s="119"/>
       <c r="J6" s="120" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K6" s="121"/>
       <c r="L6" s="122"/>
@@ -5688,7 +5682,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="19"/>
@@ -5885,7 +5879,7 @@
     </row>
     <row r="19" ht="25" customHeight="1" s="8" customFormat="1">
       <c r="A19" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="106"/>
       <c r="C19" s="106"/>
@@ -5903,7 +5897,7 @@
     </row>
     <row r="20" ht="25" customHeight="1" s="8" customFormat="1">
       <c r="A20" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="106"/>
       <c r="C20" s="106"/>
@@ -5921,7 +5915,7 @@
     </row>
     <row r="21" ht="25" customHeight="1" s="8" customFormat="1">
       <c r="A21" s="112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="113"/>
       <c r="C21" s="113"/>
@@ -5939,35 +5933,35 @@
     </row>
     <row r="22" ht="68.5" customHeight="1" s="8" customFormat="1">
       <c r="A22" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="25" t="s">
         <v>49</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>50</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N22" s="26"/>
     </row>
     <row r="23" ht="24.75" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_電業公司_請付款單範本1.xlsx
+++ b/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_電業公司_請付款單範本1.xlsx
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <r>
       <rPr>
@@ -512,13 +512,13 @@
     </r>
   </si>
   <si>
-    <t>114/12/17</t>
+    <t>2025/12/07</t>
   </si>
   <si>
     <t>事由：</t>
   </si>
   <si>
-    <t>110/07 份再生能源電能費用(Corwin, Bernier and Sipes)</t>
+    <t>2024/2 份再生能源電能費用(Predovic LLC)</t>
   </si>
   <si>
     <r>
@@ -578,10 +578,7 @@
 簽章</t>
   </si>
   <si>
-    <t>專案工作代號：</t>
-  </si>
-  <si>
-    <t>專案工作代號：9e005b69-53fd-4f74-a8af-aeb087442c9a、34a5e002-3dcd-4322-92d7-16663ab5513b、d65438c6-631a-4e6f-9a17-99029aedb186</t>
+    <t>專案工作代號：7n9y4、t42p4</t>
   </si>
   <si>
     <r>
@@ -734,22 +731,22 @@
     </r>
   </si>
   <si>
-    <t>1、Corwin, Bernier and Sipes案場電號0b04b1f9-23fd-47ff-8245-08a16b6b3ef6、5196be33-1d88-4a22-97f3-e0cb5af723bc、834cdd8b-4eb5-4599-8ddb-004b82bde036，再生能源電能費用計 NT$17,428元(含稅)。</t>
+    <t>1、Predovic LLC案場電號ccdb7a87-5185-4165-9d8a-ec3c1600bc2b、43121b66-ff9d-4317-a323-54c05a3d1d5c，再生能源電能費用計 NT$9,642元(含稅)。</t>
   </si>
   <si>
     <t>2、匯款資料</t>
   </si>
   <si>
-    <t xml:space="preserve">  戶名：Anita Towne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  行庫：Boyle, Hilpert and Barrows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  匯款帳號：63183009</t>
-  </si>
-  <si>
-    <t>3、附件：驗收紀錄表、台汽電綠能付款通知單、發票、Corwin, Bernier and Sipes存摺影本。</t>
+    <t xml:space="preserve">  戶名：Ebba Prohaska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  行庫：Keeling Inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  匯款帳號：76065128</t>
+  </si>
+  <si>
+    <t>3、附件：驗收紀錄表、台汽電綠能付款通知單、發票、Predovic LLC存摺影本。</t>
   </si>
   <si>
     <t>4、台電轉供繳款通知單公槽路徑：\\vmfs.cogen.local\台汽電綠能\7.財務部轉供數據檢視\0.台電轉供帳單pdf&amp;excel</t>
@@ -840,10 +837,10 @@
     <t>1.</t>
   </si>
   <si>
-    <t>Corwin, Bernier and Sipes</t>
-  </si>
-  <si>
-    <t>轉帳</t>
+    <t>Predovic LLC</t>
+  </si>
+  <si>
+    <t>invoice</t>
   </si>
   <si>
     <t>NTD</t>
@@ -5208,44 +5205,42 @@
       <c r="J6" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="96" t="s">
-        <v>11</v>
-      </c>
+      <c r="K6" s="96"/>
       <c r="L6" s="97"/>
       <c r="M6" s="92"/>
       <c r="N6" s="94"/>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="19"/>
       <c r="L7" s="42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" ht="21.5">
       <c r="A8" s="69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="70"/>
       <c r="C8" s="9"/>
@@ -5264,7 +5259,7 @@
     <row r="9" ht="69.65" customHeight="1" s="14" customFormat="1">
       <c r="A9" s="48"/>
       <c r="B9" s="73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="73"/>
       <c r="D9" s="73"/>
@@ -5282,7 +5277,7 @@
     <row r="10" ht="33.65" customHeight="1" s="14" customFormat="1">
       <c r="A10" s="48"/>
       <c r="B10" s="75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="76"/>
       <c r="D10" s="76"/>
@@ -5300,7 +5295,7 @@
     <row r="11" ht="21.5" s="14" customFormat="1">
       <c r="A11" s="48"/>
       <c r="B11" s="77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
@@ -5311,7 +5306,7 @@
     <row r="12" ht="25" customHeight="1" s="14" customFormat="1">
       <c r="A12" s="48"/>
       <c r="B12" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="59"/>
       <c r="N12" s="58"/>
@@ -5319,21 +5314,21 @@
     <row r="13" ht="25" customHeight="1" s="14" customFormat="1">
       <c r="A13" s="48"/>
       <c r="B13" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N13" s="58"/>
     </row>
     <row r="14" ht="25" customHeight="1" s="14" customFormat="1">
       <c r="A14" s="48"/>
       <c r="B14" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N14" s="58"/>
     </row>
     <row r="15" ht="55.75" customHeight="1" s="14" customFormat="1">
       <c r="A15" s="48"/>
       <c r="B15" s="124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="124"/>
       <c r="D15" s="124"/>
@@ -5355,65 +5350,65 @@
     </row>
     <row r="17" ht="25" customHeight="1" s="3" customFormat="1">
       <c r="A17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="38" t="s">
+      <c r="N17" s="39" t="s">
         <v>27</v>
-      </c>
-      <c r="N17" s="39" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1" s="18" customFormat="1">
       <c r="A18" s="102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="103"/>
       <c r="C18" s="103"/>
       <c r="D18" s="103"/>
       <c r="E18" s="104"/>
       <c r="F18" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="H18" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="I18" s="100" t="s">
         <v>32</v>
-      </c>
-      <c r="I18" s="100" t="s">
-        <v>33</v>
       </c>
       <c r="J18" s="101"/>
       <c r="K18" s="105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L18" s="104"/>
       <c r="M18" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="57" t="s">
         <v>35</v>
-      </c>
-      <c r="N18" s="57" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" ht="25" customHeight="1" s="8" customFormat="1">
       <c r="A19" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="106" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="106" t="s">
-        <v>38</v>
       </c>
       <c r="C19" s="106"/>
       <c r="D19" s="106"/>
       <c r="E19" s="107"/>
       <c r="F19" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="H19" s="51">
-        <v>17428</v>
+        <v>9642</v>
       </c>
       <c r="I19" s="71"/>
       <c r="J19" s="72"/>
@@ -5424,7 +5419,7 @@
     </row>
     <row r="20" ht="25" customHeight="1" s="8" customFormat="1">
       <c r="A20" s="112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="113"/>
       <c r="C20" s="113"/>
@@ -5448,41 +5443,41 @@
     </row>
     <row r="21" ht="68.5" customHeight="1" s="8" customFormat="1">
       <c r="A21" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="61" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>43</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="60"/>
       <c r="F21" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="H21" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="64" t="s">
+      <c r="I21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="J21" s="25" t="s">
         <v>48</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>49</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N21" s="26"/>
     </row>
     <row r="22" ht="24.75" customHeight="1">
       <c r="A22" s="123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5555,7 +5550,7 @@
   <sheetData>
     <row r="1" ht="27.5">
       <c r="A1" s="79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
@@ -5618,17 +5613,17 @@
       <c r="L4" s="18"/>
       <c r="M4" s="4"/>
       <c r="N4" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O4" s="1"/>
     </row>
     <row r="5" ht="25.4" customHeight="1">
       <c r="A5" s="115" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="81"/>
       <c r="C5" s="116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="116"/>
       <c r="E5" s="116"/>
@@ -5637,7 +5632,7 @@
       <c r="H5" s="116"/>
       <c r="I5" s="117"/>
       <c r="J5" s="88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" s="89"/>
       <c r="L5" s="90"/>
@@ -5657,7 +5652,7 @@
       <c r="H6" s="118"/>
       <c r="I6" s="119"/>
       <c r="J6" s="120" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6" s="121"/>
       <c r="L6" s="122"/>
@@ -5666,35 +5661,35 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="19"/>
       <c r="L7" s="42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" ht="21.5">
       <c r="A8" s="69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="70"/>
       <c r="C8" s="9"/>
@@ -5809,7 +5804,7 @@
     </row>
     <row r="16" ht="25" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5823,45 +5818,45 @@
       <c r="K16" s="8"/>
       <c r="L16" s="3"/>
       <c r="M16" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N16" s="39"/>
     </row>
     <row r="17" ht="25" customHeight="1" s="18" customFormat="1">
       <c r="A17" s="102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="103"/>
       <c r="C17" s="103"/>
       <c r="D17" s="103"/>
       <c r="E17" s="104"/>
       <c r="F17" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="H17" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="I17" s="100" t="s">
         <v>32</v>
-      </c>
-      <c r="I17" s="100" t="s">
-        <v>33</v>
       </c>
       <c r="J17" s="101"/>
       <c r="K17" s="105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L17" s="104"/>
       <c r="M17" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="57" t="s">
         <v>35</v>
-      </c>
-      <c r="N17" s="57" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1" s="8" customFormat="1">
       <c r="A18" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="106"/>
       <c r="C18" s="106"/>
@@ -5879,7 +5874,7 @@
     </row>
     <row r="19" ht="25" customHeight="1" s="8" customFormat="1">
       <c r="A19" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="106"/>
       <c r="C19" s="106"/>
@@ -5897,7 +5892,7 @@
     </row>
     <row r="20" ht="25" customHeight="1" s="8" customFormat="1">
       <c r="A20" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="106"/>
       <c r="C20" s="106"/>
@@ -5915,7 +5910,7 @@
     </row>
     <row r="21" ht="25" customHeight="1" s="8" customFormat="1">
       <c r="A21" s="112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="113"/>
       <c r="C21" s="113"/>
@@ -5933,35 +5928,35 @@
     </row>
     <row r="22" ht="68.5" customHeight="1" s="8" customFormat="1">
       <c r="A22" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="25" t="s">
         <v>48</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>49</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N22" s="26"/>
     </row>
     <row r="23" ht="24.75" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_電業公司_請付款單範本1.xlsx
+++ b/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_電業公司_請付款單範本1.xlsx
@@ -512,13 +512,13 @@
     </r>
   </si>
   <si>
-    <t>2025/12/07</t>
+    <t>114/01/21</t>
   </si>
   <si>
     <t>事由：</t>
   </si>
   <si>
-    <t>2024/2 份再生能源電能費用(Predovic LLC)</t>
+    <t>111/12 份再生能源電能費用(苗栗風力股份有限公司)</t>
   </si>
   <si>
     <r>
@@ -578,7 +578,7 @@
 簽章</t>
   </si>
   <si>
-    <t>專案工作代號：7n9y4、t42p4</t>
+    <t>專案工作代號：C001</t>
   </si>
   <si>
     <r>
@@ -731,22 +731,22 @@
     </r>
   </si>
   <si>
-    <t>1、Predovic LLC案場電號ccdb7a87-5185-4165-9d8a-ec3c1600bc2b、43121b66-ff9d-4317-a323-54c05a3d1d5c，再生能源電能費用計 NT$9,642元(含稅)。</t>
+    <t>1、苗栗風力股份有限公司案場電號20885560111，再生能源電能費用計 NT$72,479,032元(含稅)。</t>
   </si>
   <si>
     <t>2、匯款資料</t>
   </si>
   <si>
-    <t xml:space="preserve">  戶名：Ebba Prohaska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  行庫：Keeling Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  匯款帳號：76065128</t>
-  </si>
-  <si>
-    <t>3、附件：驗收紀錄表、台汽電綠能付款通知單、發票、Predovic LLC存摺影本。</t>
+    <t xml:space="preserve">  戶名：苗栗風力股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  行庫：兆豐國際商業銀行 板橋分行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  匯款帳號：20609001655</t>
+  </si>
+  <si>
+    <t>3、附件：驗收紀錄表、台汽電綠能付款通知單、發票、苗栗風力股份有限公司存摺影本。</t>
   </si>
   <si>
     <t>4、台電轉供繳款通知單公槽路徑：\\vmfs.cogen.local\台汽電綠能\7.財務部轉供數據檢視\0.台電轉供帳單pdf&amp;excel</t>
@@ -837,10 +837,10 @@
     <t>1.</t>
   </si>
   <si>
-    <t>Predovic LLC</t>
-  </si>
-  <si>
-    <t>invoice</t>
+    <t>苗栗風力股份有限公司</t>
+  </si>
+  <si>
+    <t>電匯</t>
   </si>
   <si>
     <t>NTD</t>
@@ -5408,7 +5408,7 @@
         <v>39</v>
       </c>
       <c r="H19" s="51">
-        <v>9642</v>
+        <v>72479032</v>
       </c>
       <c r="I19" s="71"/>
       <c r="J19" s="72"/>
